--- a/Optimisation/dataset/capacity.xlsx
+++ b/Optimisation/dataset/capacity.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\62- Other Projects\24- Articles\13- Supply Chain Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/daniel_tan3_sg_ey_com/Documents/Documents/GitHub/WalmartSales/Optimisation/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_2EAC58DD0E06FE5CA972D603F51699416183E902" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4309CFFF-BE1D-433A-8062-0B2305CF04F4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
+    <workbookView xWindow="32040" yWindow="5775" windowWidth="17235" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>USA</t>
   </si>
@@ -41,19 +51,16 @@
     <t>India</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Capacity (kUnits/month)</t>
+    <t>WTP</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,9 +122,11 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,83 +406,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>500</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>500</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>500</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>500</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>500</v>
-      </c>
-      <c r="C6" s="2">
-        <f>1500*2</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Optimisation/dataset/capacity.xlsx
+++ b/Optimisation/dataset/capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/daniel_tan3_sg_ey_com/Documents/Documents/GitHub/WalmartSales/Optimisation/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_2EAC58DD0E06FE5CA972D603F51699416183E902" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4309CFFF-BE1D-433A-8062-0B2305CF04F4}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_2EAC58DD0E06FE5CA972D603F51699416183E902" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{895A2483-0E4B-483A-BC80-7AF702A29430}"/>
   <bookViews>
-    <workbookView xWindow="32040" yWindow="5775" windowWidth="17235" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37425" yWindow="5775" windowWidth="17235" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>WTP</t>
   </si>
   <si>
     <t>Capacity</t>
+  </si>
+  <si>
+    <t>Ampang Intake</t>
+  </si>
+  <si>
+    <t>Batang Kali</t>
+  </si>
+  <si>
+    <t>Bernam River Head</t>
+  </si>
+  <si>
+    <t>Wangsa Maju</t>
+  </si>
+  <si>
+    <t>Sungai Tengi</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,15 +421,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>1000</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>1000</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>1000</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>1000</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>1000</v>

--- a/Optimisation/dataset/capacity.xlsx
+++ b/Optimisation/dataset/capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/daniel_tan3_sg_ey_com/Documents/Documents/GitHub/WalmartSales/Optimisation/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_2EAC58DD0E06FE5CA972D603F51699416183E902" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{895A2483-0E4B-483A-BC80-7AF702A29430}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_2EAC58DD0E06FE5CA972D603F51699416183E902" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{619BA8BB-2866-4BD2-9540-CD93C6C4AC6E}"/>
   <bookViews>
-    <workbookView xWindow="37425" yWindow="5775" windowWidth="17235" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39045" yWindow="2850" windowWidth="14985" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -448,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>1000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>1000</v>
+        <v>2000000</v>
       </c>
     </row>
   </sheetData>
